--- a/englishOutputs/composites.xlsx
+++ b/englishOutputs/composites.xlsx
@@ -646,16 +646,16 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>23</v>
       </c>
       <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
         <v>5</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -742,16 +742,16 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>17</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -870,13 +870,13 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>44</v>
       </c>
       <c r="I9">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -902,13 +902,13 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -998,13 +998,13 @@
         <v>12</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -1062,16 +1062,16 @@
         <v>12</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>23</v>
       </c>
       <c r="I15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1094,16 +1094,16 @@
         <v>12</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1158,13 +1158,13 @@
         <v>12</v>
       </c>
       <c r="G18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H18">
         <v>21</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1190,13 +1190,13 @@
         <v>12</v>
       </c>
       <c r="G19">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="H19">
         <v>60</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
@@ -1222,13 +1222,13 @@
         <v>12</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>12</v>
       </c>
       <c r="G22">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>12</v>
       </c>
       <c r="G23">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
         <v>21</v>
@@ -1478,16 +1478,16 @@
         <v>12</v>
       </c>
       <c r="G28">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>23</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J28">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1510,16 +1510,16 @@
         <v>12</v>
       </c>
       <c r="G29">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <v>20</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1542,13 +1542,13 @@
         <v>12</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H30">
         <v>48</v>
       </c>
       <c r="I30">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
@@ -1574,13 +1574,13 @@
         <v>12</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>12</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1670,13 +1670,13 @@
         <v>12</v>
       </c>
       <c r="G34">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H34">
         <v>43</v>
       </c>
       <c r="I34">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J34">
         <v>33</v>
@@ -1702,13 +1702,13 @@
         <v>12</v>
       </c>
       <c r="G35">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H35">
         <v>48</v>
       </c>
       <c r="I35">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
@@ -1798,13 +1798,13 @@
         <v>12</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>4</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -1926,13 +1926,13 @@
         <v>12</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H42">
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
         <v>21</v>
@@ -2118,13 +2118,13 @@
         <v>12</v>
       </c>
       <c r="G48">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H48">
         <v>13</v>
       </c>
       <c r="I48">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -2150,13 +2150,13 @@
         <v>12</v>
       </c>
       <c r="G49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H49">
         <v>23</v>
       </c>
       <c r="I49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -2182,13 +2182,13 @@
         <v>12</v>
       </c>
       <c r="G50">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H50">
         <v>36</v>
       </c>
       <c r="I50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J50" t="s">
         <v>21</v>
@@ -2470,16 +2470,16 @@
         <v>64</v>
       </c>
       <c r="G59">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H59">
         <v>75</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J59">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2502,16 +2502,16 @@
         <v>64</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>8</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2566,13 +2566,13 @@
         <v>64</v>
       </c>
       <c r="G62">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H62">
         <v>84</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
@@ -2598,13 +2598,13 @@
         <v>64</v>
       </c>
       <c r="G63">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2630,13 +2630,13 @@
         <v>64</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2662,13 +2662,13 @@
         <v>64</v>
       </c>
       <c r="G65">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s">
         <v>21</v>
@@ -2950,16 +2950,16 @@
         <v>64</v>
       </c>
       <c r="G74">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H74">
         <v>50</v>
       </c>
       <c r="I74">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J74">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2982,13 +2982,13 @@
         <v>64</v>
       </c>
       <c r="G75">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H75">
         <v>57</v>
       </c>
       <c r="I75">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J75" t="s">
         <v>21</v>
@@ -3078,16 +3078,16 @@
         <v>64</v>
       </c>
       <c r="G78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H78">
         <v>27</v>
       </c>
       <c r="I78">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J78">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3110,13 +3110,13 @@
         <v>64</v>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -3142,13 +3142,13 @@
         <v>64</v>
       </c>
       <c r="G80">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H80">
         <v>30</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J80" t="s">
         <v>21</v>
@@ -3334,13 +3334,13 @@
         <v>64</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>64</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H88">
         <v>2</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>21</v>
@@ -3430,13 +3430,13 @@
         <v>79</v>
       </c>
       <c r="G89">
-        <v>0.5968586387434555</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="H89">
         <v>0.4241071428571428</v>
       </c>
       <c r="I89">
-        <v>0.1727514958863126</v>
+        <v>0.07027487961476725</v>
       </c>
       <c r="J89" t="s">
         <v>21</v>
@@ -3462,13 +3462,13 @@
         <v>79</v>
       </c>
       <c r="G90">
-        <v>1.259259259259259</v>
+        <v>2.057471264367816</v>
       </c>
       <c r="H90">
         <v>0.9451219512195121</v>
       </c>
       <c r="I90">
-        <v>0.3141373080397472</v>
+        <v>1.112349313148304</v>
       </c>
       <c r="J90" t="s">
         <v>21</v>
@@ -3494,13 +3494,13 @@
         <v>12</v>
       </c>
       <c r="G91">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>24</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J91">
         <v>16</v>
@@ -3590,16 +3590,16 @@
         <v>12</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H94">
         <v>10</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3718,13 +3718,13 @@
         <v>12</v>
       </c>
       <c r="G98">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <v>44</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>21</v>
@@ -3846,13 +3846,13 @@
         <v>12</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>12</v>
       </c>
       <c r="G103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H103">
         <v>13</v>
       </c>
       <c r="I103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J103" t="s">
         <v>21</v>
@@ -3910,16 +3910,16 @@
         <v>12</v>
       </c>
       <c r="G104">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H104">
         <v>10</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3942,16 +3942,16 @@
         <v>12</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H105">
         <v>15</v>
       </c>
       <c r="I105">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J105">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4006,16 +4006,16 @@
         <v>12</v>
       </c>
       <c r="G107">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>10</v>
       </c>
       <c r="I107">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J107">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4038,13 +4038,13 @@
         <v>12</v>
       </c>
       <c r="G108">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H108">
         <v>36</v>
       </c>
       <c r="I108">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J108" t="s">
         <v>21</v>
@@ -4134,13 +4134,13 @@
         <v>12</v>
       </c>
       <c r="G111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H111">
         <v>11</v>
       </c>
       <c r="I111">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -4166,13 +4166,13 @@
         <v>12</v>
       </c>
       <c r="G112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H112">
         <v>13</v>
       </c>
       <c r="I112">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J112" t="s">
         <v>21</v>
@@ -4326,13 +4326,13 @@
         <v>12</v>
       </c>
       <c r="G117">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>11</v>
       </c>
       <c r="I117">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J117">
         <v>10</v>
@@ -4390,13 +4390,13 @@
         <v>12</v>
       </c>
       <c r="G119">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>19</v>
       </c>
       <c r="I119">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J119" t="s">
         <v>21</v>
@@ -4454,13 +4454,13 @@
         <v>12</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -4518,13 +4518,13 @@
         <v>12</v>
       </c>
       <c r="G123">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H123">
         <v>21</v>
       </c>
       <c r="I123">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -4550,13 +4550,13 @@
         <v>12</v>
       </c>
       <c r="G124">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H124">
         <v>22</v>
       </c>
       <c r="I124">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J124" t="s">
         <v>21</v>
@@ -4646,13 +4646,13 @@
         <v>12</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127">
         <v>4</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -4678,16 +4678,16 @@
         <v>12</v>
       </c>
       <c r="G128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>3</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4774,13 +4774,13 @@
         <v>12</v>
       </c>
       <c r="G131">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H131">
         <v>7</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
         <v>21</v>
@@ -4966,13 +4966,13 @@
         <v>12</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H137">
         <v>5</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -4998,13 +4998,13 @@
         <v>12</v>
       </c>
       <c r="G138">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H138">
         <v>16</v>
       </c>
       <c r="I138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J138">
         <v>9</v>
@@ -5030,13 +5030,13 @@
         <v>12</v>
       </c>
       <c r="G139">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H139">
         <v>21</v>
       </c>
       <c r="I139">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>21</v>
@@ -5318,13 +5318,13 @@
         <v>64</v>
       </c>
       <c r="G148">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H148">
         <v>41</v>
       </c>
       <c r="I148">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J148">
         <v>28</v>
@@ -5350,16 +5350,16 @@
         <v>64</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>11</v>
       </c>
       <c r="I149">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5414,13 +5414,13 @@
         <v>64</v>
       </c>
       <c r="G151">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H151">
         <v>52</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>21</v>
@@ -5638,13 +5638,13 @@
         <v>64</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -5670,13 +5670,13 @@
         <v>64</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159">
         <v>4</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>21</v>
@@ -5734,13 +5734,13 @@
         <v>64</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161">
         <v>1</v>
@@ -5798,13 +5798,13 @@
         <v>64</v>
       </c>
       <c r="G163">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>20</v>
       </c>
       <c r="I163">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J163">
         <v>19</v>
@@ -5830,13 +5830,13 @@
         <v>64</v>
       </c>
       <c r="G164">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H164">
         <v>22</v>
       </c>
       <c r="I164">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J164" t="s">
         <v>21</v>
@@ -5926,13 +5926,13 @@
         <v>64</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H167">
         <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -5958,16 +5958,16 @@
         <v>64</v>
       </c>
       <c r="G168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -5990,13 +5990,13 @@
         <v>64</v>
       </c>
       <c r="G169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H169">
         <v>3</v>
       </c>
       <c r="I169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
         <v>21</v>
@@ -6278,13 +6278,13 @@
         <v>79</v>
       </c>
       <c r="G178">
-        <v>0.392638036809816</v>
+        <v>0.3391812865497076</v>
       </c>
       <c r="H178">
         <v>0.4901960784313725</v>
       </c>
       <c r="I178">
-        <v>0.09755804162155657</v>
+        <v>0.1510147918816649</v>
       </c>
       <c r="J178" t="s">
         <v>21</v>
@@ -6310,13 +6310,13 @@
         <v>79</v>
       </c>
       <c r="G179">
-        <v>1.161904761904762</v>
+        <v>0.9572649572649573</v>
       </c>
       <c r="H179">
         <v>0.9487179487179487</v>
       </c>
       <c r="I179">
-        <v>0.2131868131868133</v>
+        <v>0.008547008547008628</v>
       </c>
       <c r="J179" t="s">
         <v>21</v>
@@ -6342,16 +6342,16 @@
         <v>12</v>
       </c>
       <c r="G180">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H180">
         <v>17</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J180">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6374,13 +6374,13 @@
         <v>12</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -6566,13 +6566,13 @@
         <v>12</v>
       </c>
       <c r="G187">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H187">
         <v>30</v>
       </c>
       <c r="I187">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J187" t="s">
         <v>21</v>
@@ -6598,13 +6598,13 @@
         <v>12</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -6726,13 +6726,13 @@
         <v>12</v>
       </c>
       <c r="G192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H192">
         <v>3</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>21</v>
@@ -6758,13 +6758,13 @@
         <v>12</v>
       </c>
       <c r="G193">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H193">
         <v>5</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -6790,16 +6790,16 @@
         <v>12</v>
       </c>
       <c r="G194">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H194">
         <v>15</v>
       </c>
       <c r="I194">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J194">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -6854,16 +6854,16 @@
         <v>12</v>
       </c>
       <c r="G196">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H196">
         <v>5</v>
       </c>
       <c r="I196">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J196">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -6886,13 +6886,13 @@
         <v>12</v>
       </c>
       <c r="G197">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H197">
         <v>25</v>
       </c>
       <c r="I197">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J197" t="s">
         <v>21</v>
@@ -6918,13 +6918,13 @@
         <v>12</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -6982,16 +6982,16 @@
         <v>12</v>
       </c>
       <c r="G200">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H200">
         <v>8</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J200">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7014,13 +7014,13 @@
         <v>12</v>
       </c>
       <c r="G201">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H201">
         <v>8</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J201" t="s">
         <v>21</v>
@@ -7174,13 +7174,13 @@
         <v>12</v>
       </c>
       <c r="G206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -7206,13 +7206,13 @@
         <v>12</v>
       </c>
       <c r="G207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -7238,13 +7238,13 @@
         <v>12</v>
       </c>
       <c r="G208">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H208">
         <v>4</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J208" t="s">
         <v>21</v>
@@ -7302,16 +7302,16 @@
         <v>12</v>
       </c>
       <c r="G210">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H210">
         <v>3</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -7366,16 +7366,16 @@
         <v>12</v>
       </c>
       <c r="G212">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H212">
         <v>6</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J212">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -7398,13 +7398,13 @@
         <v>12</v>
       </c>
       <c r="G213">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H213">
         <v>9</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
         <v>21</v>
@@ -7814,13 +7814,13 @@
         <v>12</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H226">
         <v>3</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226">
         <v>1</v>
@@ -7846,16 +7846,16 @@
         <v>12</v>
       </c>
       <c r="G227">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H227">
         <v>12</v>
       </c>
       <c r="I227">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J227">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -7878,13 +7878,13 @@
         <v>12</v>
       </c>
       <c r="G228">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H228">
         <v>15</v>
       </c>
       <c r="I228">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J228" t="s">
         <v>21</v>
@@ -8166,16 +8166,16 @@
         <v>64</v>
       </c>
       <c r="G237">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H237">
         <v>45</v>
       </c>
       <c r="I237">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J237">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8198,13 +8198,13 @@
         <v>64</v>
       </c>
       <c r="G238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -8262,13 +8262,13 @@
         <v>64</v>
       </c>
       <c r="G240">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H240">
         <v>47</v>
       </c>
       <c r="I240">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J240" t="s">
         <v>21</v>
@@ -8294,16 +8294,16 @@
         <v>64</v>
       </c>
       <c r="G241">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H241">
         <v>7</v>
       </c>
       <c r="I241">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -8358,13 +8358,13 @@
         <v>64</v>
       </c>
       <c r="G243">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H243">
         <v>7</v>
       </c>
       <c r="I243">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J243" t="s">
         <v>21</v>
@@ -8486,13 +8486,13 @@
         <v>64</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
         <v>7</v>
       </c>
       <c r="I247">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -8518,13 +8518,13 @@
         <v>64</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
         <v>11</v>
       </c>
       <c r="I248">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J248" t="s">
         <v>21</v>
@@ -8550,13 +8550,13 @@
         <v>64</v>
       </c>
       <c r="G249">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H249">
         <v>5</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249">
         <v>4</v>
@@ -8646,13 +8646,13 @@
         <v>64</v>
       </c>
       <c r="G252">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H252">
         <v>7</v>
       </c>
       <c r="I252">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J252">
         <v>6</v>
@@ -8678,13 +8678,13 @@
         <v>64</v>
       </c>
       <c r="G253">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H253">
         <v>14</v>
       </c>
       <c r="I253">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J253" t="s">
         <v>21</v>
@@ -8774,16 +8774,16 @@
         <v>64</v>
       </c>
       <c r="G256">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H256">
         <v>14</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J256">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -8806,13 +8806,13 @@
         <v>64</v>
       </c>
       <c r="G257">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H257">
         <v>2</v>
       </c>
       <c r="I257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -8838,13 +8838,13 @@
         <v>64</v>
       </c>
       <c r="G258">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H258">
         <v>16</v>
       </c>
       <c r="I258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J258" t="s">
         <v>21</v>
@@ -9126,13 +9126,13 @@
         <v>79</v>
       </c>
       <c r="G267">
-        <v>0.3984375</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="H267">
         <v>0.4273504273504273</v>
       </c>
       <c r="I267">
-        <v>0.02891292735042733</v>
+        <v>0.06844789197730378</v>
       </c>
       <c r="J267" t="s">
         <v>21</v>
@@ -9158,13 +9158,13 @@
         <v>79</v>
       </c>
       <c r="G268">
-        <v>0.845360824742268</v>
+        <v>1.197530864197531</v>
       </c>
       <c r="H268">
         <v>0.8152173913043478</v>
       </c>
       <c r="I268">
-        <v>0.03014343343792025</v>
+        <v>0.3823134728931831</v>
       </c>
       <c r="J268" t="s">
         <v>21</v>
@@ -9190,13 +9190,13 @@
         <v>12</v>
       </c>
       <c r="G269">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H269">
         <v>3</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J269">
         <v>3</v>
@@ -9222,13 +9222,13 @@
         <v>12</v>
       </c>
       <c r="G270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270">
         <v>1</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -9446,13 +9446,13 @@
         <v>12</v>
       </c>
       <c r="G277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277">
         <v>1</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277">
         <v>0</v>
@@ -9574,13 +9574,13 @@
         <v>12</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281">
         <v>2</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
         <v>21</v>
@@ -9638,13 +9638,13 @@
         <v>12</v>
       </c>
       <c r="G283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H283">
         <v>0</v>
       </c>
       <c r="I283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J283">
         <v>0</v>
@@ -9702,13 +9702,13 @@
         <v>12</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H285">
         <v>0</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J285">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>12</v>
       </c>
       <c r="G286">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H286">
         <v>8</v>
       </c>
       <c r="I286">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J286" t="s">
         <v>21</v>
@@ -9830,16 +9830,16 @@
         <v>12</v>
       </c>
       <c r="G289">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H289">
         <v>2</v>
       </c>
       <c r="I289">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -9862,13 +9862,13 @@
         <v>12</v>
       </c>
       <c r="G290">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H290">
         <v>2</v>
       </c>
       <c r="I290">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J290" t="s">
         <v>21</v>
@@ -10150,16 +10150,16 @@
         <v>12</v>
       </c>
       <c r="G299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H299">
         <v>4</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -10214,13 +10214,13 @@
         <v>12</v>
       </c>
       <c r="G301">
+        <v>10</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
         <v>9</v>
-      </c>
-      <c r="H301">
-        <v>1</v>
-      </c>
-      <c r="I301">
-        <v>8</v>
       </c>
       <c r="J301">
         <v>1</v>
@@ -10246,13 +10246,13 @@
         <v>12</v>
       </c>
       <c r="G302">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H302">
         <v>5</v>
       </c>
       <c r="I302">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J302" t="s">
         <v>21</v>
@@ -10342,7 +10342,7 @@
         <v>12</v>
       </c>
       <c r="G305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -10374,13 +10374,13 @@
         <v>12</v>
       </c>
       <c r="G306">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="I306">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J306">
         <v>0</v>
@@ -10470,13 +10470,13 @@
         <v>12</v>
       </c>
       <c r="G309">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H309">
         <v>3</v>
       </c>
       <c r="I309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
         <v>21</v>
@@ -11014,16 +11014,16 @@
         <v>64</v>
       </c>
       <c r="G326">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H326">
         <v>9</v>
       </c>
       <c r="I326">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J326">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -11046,13 +11046,13 @@
         <v>64</v>
       </c>
       <c r="G327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H327">
         <v>1</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327">
         <v>0</v>
@@ -11110,13 +11110,13 @@
         <v>64</v>
       </c>
       <c r="G329">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H329">
         <v>10</v>
       </c>
       <c r="I329">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J329" t="s">
         <v>21</v>
@@ -11142,16 +11142,16 @@
         <v>64</v>
       </c>
       <c r="G330">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H330">
         <v>18</v>
       </c>
       <c r="I330">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -11206,13 +11206,13 @@
         <v>64</v>
       </c>
       <c r="G332">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H332">
         <v>22</v>
       </c>
       <c r="I332">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J332" t="s">
         <v>21</v>
@@ -11974,13 +11974,13 @@
         <v>79</v>
       </c>
       <c r="G356">
-        <v>0.6956521739130435</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="H356">
         <v>1.363636363636364</v>
       </c>
       <c r="I356">
-        <v>0.6679841897233201</v>
+        <v>0.9562289562289561</v>
       </c>
       <c r="J356" t="s">
         <v>21</v>
@@ -12006,13 +12006,13 @@
         <v>79</v>
       </c>
       <c r="G357">
-        <v>0.8571428571428571</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="H357">
         <v>2.12</v>
       </c>
       <c r="I357">
-        <v>1.262857142857143</v>
+        <v>1.502978723404255</v>
       </c>
       <c r="J357" t="s">
         <v>21</v>
@@ -12038,13 +12038,13 @@
         <v>12</v>
       </c>
       <c r="G358">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H358">
         <v>2</v>
       </c>
       <c r="I358">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J358">
         <v>0</v>
@@ -12070,16 +12070,16 @@
         <v>12</v>
       </c>
       <c r="G359">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H359">
         <v>5</v>
       </c>
       <c r="I359">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -12134,13 +12134,13 @@
         <v>12</v>
       </c>
       <c r="G361">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H361">
         <v>2</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J361">
         <v>1</v>
@@ -12262,13 +12262,13 @@
         <v>12</v>
       </c>
       <c r="G365">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H365">
         <v>9</v>
       </c>
       <c r="I365">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J365" t="s">
         <v>21</v>
@@ -12454,16 +12454,16 @@
         <v>12</v>
       </c>
       <c r="G371">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H371">
         <v>20</v>
       </c>
       <c r="I371">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="J371">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -12486,13 +12486,13 @@
         <v>12</v>
       </c>
       <c r="G372">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H372">
         <v>13</v>
       </c>
       <c r="I372">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J372">
         <v>1</v>
@@ -12550,16 +12550,16 @@
         <v>12</v>
       </c>
       <c r="G374">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H374">
         <v>63</v>
       </c>
       <c r="I374">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J374">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:10">
@@ -12582,13 +12582,13 @@
         <v>12</v>
       </c>
       <c r="G375">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="H375">
         <v>96</v>
       </c>
       <c r="I375">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="J375" t="s">
         <v>21</v>
@@ -12678,16 +12678,16 @@
         <v>12</v>
       </c>
       <c r="G378">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H378">
         <v>17</v>
       </c>
       <c r="I378">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:10">
@@ -12710,13 +12710,13 @@
         <v>12</v>
       </c>
       <c r="G379">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H379">
         <v>22</v>
       </c>
       <c r="I379">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J379" t="s">
         <v>21</v>
@@ -12902,16 +12902,16 @@
         <v>12</v>
       </c>
       <c r="G385">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H385">
         <v>2</v>
       </c>
       <c r="I385">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="J385">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:10">
@@ -12934,13 +12934,13 @@
         <v>12</v>
       </c>
       <c r="G386">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="H386">
         <v>7</v>
       </c>
       <c r="I386">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="J386" t="s">
         <v>21</v>
@@ -13062,13 +13062,13 @@
         <v>12</v>
       </c>
       <c r="G390">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H390">
         <v>13</v>
       </c>
       <c r="I390">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J390">
         <v>9</v>
@@ -13094,13 +13094,13 @@
         <v>12</v>
       </c>
       <c r="G391">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H391">
         <v>24</v>
       </c>
       <c r="I391">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J391" t="s">
         <v>21</v>
@@ -13190,13 +13190,13 @@
         <v>12</v>
       </c>
       <c r="G394">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H394">
         <v>0</v>
       </c>
       <c r="I394">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J394">
         <v>0</v>
@@ -13222,13 +13222,13 @@
         <v>12</v>
       </c>
       <c r="G395">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H395">
         <v>10</v>
       </c>
       <c r="I395">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J395">
         <v>0</v>
@@ -13318,13 +13318,13 @@
         <v>12</v>
       </c>
       <c r="G398">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H398">
         <v>17</v>
       </c>
       <c r="I398">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J398" t="s">
         <v>21</v>
@@ -13510,13 +13510,13 @@
         <v>12</v>
       </c>
       <c r="G404">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H404">
         <v>7</v>
       </c>
       <c r="I404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J404">
         <v>4</v>
@@ -13542,13 +13542,13 @@
         <v>12</v>
       </c>
       <c r="G405">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H405">
         <v>0</v>
       </c>
       <c r="I405">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J405">
         <v>0</v>
@@ -13574,13 +13574,13 @@
         <v>12</v>
       </c>
       <c r="G406">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H406">
         <v>7</v>
       </c>
       <c r="I406">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J406" t="s">
         <v>21</v>
@@ -13862,13 +13862,13 @@
         <v>64</v>
       </c>
       <c r="G415">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H415">
         <v>8</v>
       </c>
       <c r="I415">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J415">
         <v>4</v>
@@ -13894,13 +13894,13 @@
         <v>64</v>
       </c>
       <c r="G416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H416">
         <v>9</v>
       </c>
       <c r="I416">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J416">
         <v>0</v>
@@ -13958,13 +13958,13 @@
         <v>64</v>
       </c>
       <c r="G418">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H418">
         <v>17</v>
       </c>
       <c r="I418">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J418" t="s">
         <v>21</v>
@@ -13990,16 +13990,16 @@
         <v>64</v>
       </c>
       <c r="G419">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H419">
         <v>8</v>
       </c>
       <c r="I419">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:10">
@@ -14022,13 +14022,13 @@
         <v>64</v>
       </c>
       <c r="G420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H420">
         <v>6</v>
       </c>
       <c r="I420">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J420">
         <v>0</v>
@@ -14054,13 +14054,13 @@
         <v>64</v>
       </c>
       <c r="G421">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H421">
         <v>14</v>
       </c>
       <c r="I421">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J421" t="s">
         <v>21</v>
@@ -14470,16 +14470,16 @@
         <v>64</v>
       </c>
       <c r="G434">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H434">
         <v>8</v>
       </c>
       <c r="I434">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J434">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:10">
@@ -14534,13 +14534,13 @@
         <v>64</v>
       </c>
       <c r="G436">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H436">
         <v>10</v>
       </c>
       <c r="I436">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J436" t="s">
         <v>21</v>
@@ -14822,13 +14822,13 @@
         <v>79</v>
       </c>
       <c r="G445">
-        <v>0.8706896551724138</v>
+        <v>0.2848484848484849</v>
       </c>
       <c r="H445">
         <v>0.6124031007751938</v>
       </c>
       <c r="I445">
-        <v>0.25828655439722</v>
+        <v>0.3275546159267089</v>
       </c>
       <c r="J445" t="s">
         <v>21</v>
@@ -14854,13 +14854,13 @@
         <v>79</v>
       </c>
       <c r="G446">
-        <v>2.557377049180328</v>
+        <v>1.904109589041096</v>
       </c>
       <c r="H446">
         <v>5.303030303030303</v>
       </c>
       <c r="I446">
-        <v>2.745653253849975</v>
+        <v>3.398920713989207</v>
       </c>
       <c r="J446" t="s">
         <v>21</v>
